--- a/lab6/task.xlsx
+++ b/lab6/task.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B4D38-E1D5-4197-92CB-C33EF2011A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Тестирование безоппасности" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Функционлаьное тестирование" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Конфигурационное тестирование" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Тест-план" sheetId="4" r:id="rId7"/>
+    <sheet name="Тестирование безоппасности" sheetId="1" r:id="rId1"/>
+    <sheet name="Функционлаьное тестирование" sheetId="2" r:id="rId2"/>
+    <sheet name="Конфигурационное тестирование" sheetId="3" r:id="rId3"/>
+    <sheet name="Тест-план" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
   <si>
     <t>Преусловие для всех test cases</t>
   </si>
@@ -22,9 +31,6 @@
     <t>Существует уч. запись ivan:ivan123 с адрессом г. Иваново ул. Иванова и email ivan@test.ru</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
     <t>Повторная регистрания с уже существующим логином</t>
   </si>
   <si>
@@ -229,9 +235,6 @@
     <t>Открывается сайт, все элементы на своём месте, все картинки и шрифты подгружены</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>Вход на сайт с Windows 8 Mozilla Firefox 78.5.0ESR</t>
   </si>
   <si>
@@ -290,9 +293,6 @@
   </si>
   <si>
     <t>Конфигурационное тестирование</t>
-  </si>
-  <si>
-    <t>Не будет нагрузочного тестирования</t>
   </si>
   <si>
     <t>Risks</t>
@@ -385,70 +385,78 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="13">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Lato"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -456,7 +464,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -513,8 +521,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
-    <border/>
+  <borders count="14">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -528,19 +542,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -550,33 +568,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -585,22 +588,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -612,227 +604,241 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="63">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1022,32 +1028,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F992"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="36.25"/>
-    <col customWidth="1" min="3" max="3" width="34.5"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="43.5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1055,275 +1063,275 @@
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="26.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="29.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="29.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="26.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25">
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12">
+        <v>3</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="43.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="39">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="10" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="28.5">
+      <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25">
+      <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="10" t="s">
+    </row>
+    <row r="33" spans="2:3" ht="28.5">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2274,282 +2282,280 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.38"/>
-    <col customWidth="1" min="2" max="2" width="35.25"/>
-    <col customWidth="1" min="3" max="3" width="31.75"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="52"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13"/>
+      <c r="B3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="38.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="22" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="38.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="52"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="24" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="27" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="24" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="13"/>
+      <c r="B18" s="57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="24" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="29.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="52"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="30" t="s">
+      <c r="C22" s="56"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="30" t="s">
+      <c r="C23" s="56"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="14.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B31" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B32" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -3527,178 +3533,176 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="40.63"/>
-    <col customWidth="1" min="3" max="3" width="28.5"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="28.5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="57">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="B10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5">
+      <c r="B11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
+      <c r="C11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57">
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4673,230 +4677,226 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="26.38"/>
-    <col customWidth="1" min="3" max="3" width="61.25"/>
-    <col customWidth="1" min="4" max="4" width="27.25"/>
-    <col customWidth="1" min="5" max="5" width="10.88"/>
-    <col customWidth="1" min="6" max="6" width="29.63"/>
-    <col customWidth="1" min="7" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="61.25" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="7" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="7"/>
+      <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="36" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="51">
+      <c r="A3" s="7"/>
+      <c r="B3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="38" t="s">
+      <c r="D3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="7"/>
+      <c r="B4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="40" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="44" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="B6" s="18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="46" t="s">
+      <c r="D6" s="53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="47" t="s">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="B7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D7" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="50" t="s">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="B8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C8" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D8" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="50" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="50" t="s">
+      <c r="E9" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="C10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="D10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="56" t="s">
+      <c r="E10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="59" t="s">
+      <c r="E11" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" ht="29.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="C12" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="D12" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="59" t="s">
+      <c r="E12" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="E13" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="59" t="s">
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E14" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="9"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="9"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="7"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5880,26 +5880,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>